--- a/Hjemsendelse 05-11-2025.xlsx
+++ b/Hjemsendelse 05-11-2025.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariussmidt/Desktop/BA/Bachelor/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DCBF6E-CC18-3C4A-BA25-4405BEF85BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="24700" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Model results"/>
-    <sheet r:id="rId2" sheetId="2" name="Main bw"/>
-    <sheet r:id="rId3" sheetId="3" name="Deskr. data"/>
+    <sheet name="Model results" sheetId="1" r:id="rId1"/>
+    <sheet name="Main bw" sheetId="2" r:id="rId2"/>
+    <sheet name="Deskr. data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="22">
   <si>
     <t>sqm</t>
   </si>
@@ -80,12 +99,14 @@
   <si>
     <t>Effect_quad_niv</t>
   </si>
+  <si>
+    <t>leje pr. kvm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,35 +149,4023 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Deskr. data'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Deskr. data'!$A$27:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Deskr. data'!$G$27:$G$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>73.086614830098441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.831925941121739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.292640118106178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.981290602490631</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.709210105162043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.433270444763195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.678191565873732</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.132898618744804</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.661494877803776</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.402794232414806</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.938108260501821</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.263728257749293</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66.739989914298945</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.520695629136384</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.032963144693056</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65.584001377631836</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65.065573040726719</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63.624385375615802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63.287071316006504</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63.844092593533283</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>63.508441905938149</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64.143990784488636</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.091406663491199</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63.531698370162061</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64.242319775724496</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61.672693216939429</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.302354445187468</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61.92735583857862</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>61.845930783583704</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61.707510155383652</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60.181645382897067</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>60.794884920149478</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60.118490359769353</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>60.245485176078851</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>59.632896475910378</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60.413191481255623</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60.271325242379874</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>61.167586856482437</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>62.013609413426984</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60.746289415327141</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60.099879417635414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4DAB-4341-8F71-DCF386843A1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="668002352"/>
+        <c:axId val="716659695"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="668002352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="85"/>
+          <c:min val="45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="716659695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="716659695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="55"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668002352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Deskr. data'!$D$2:$D$88</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>120955.663267575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110404.23487183401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103208.91939510401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111960.343180311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105852.409411931</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109654.147455007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112851.90259310701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108512.52998973</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111062.479166643</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109241.895712912</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120091.16860972</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115301.07918267501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119817.70742878001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>119110.367039591</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>125956.003344513</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>129386.109568054</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>131660.58873497901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>130896.06878858</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>131115.09294083499</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>135898.15644081199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>138455.307331213</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>138715.134370015</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>143310.037901403</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>142900.16075132001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>147711.79747467599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150606.856428325</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>151321.989119904</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>153471.80336565699</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>156062.70051408699</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>156834.6245985</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>152779.82882498699</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>165022.17915631499</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>171717.19691539</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>174519.97208343499</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>173950.82490291499</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>176130.24602394001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180622.88116710601</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>181695.29859724001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>183892.22278466899</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>188369.854357501</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>190553.49330340099</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>194696.388870072</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>193041.62158420801</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>195785.333743453</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>198729.03459965601</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>202760.39184226099</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>204039.38464117501</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>209958.440859397</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>209659.46361605101</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>211421.194021248</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>208940.158483732</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>212166.61651330101</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>213437.45509781499</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>214429.72129343901</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>214765.976534952</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>215447.78900276101</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>215848.07302956699</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>214188.670369531</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>217014.61338384301</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>216372.33279118</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>218177.36173581</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>220650.03555326199</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>223034.35089228101</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>224499.54255809</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>224808.21267263</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>227511.48502023501</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>226832.493157299</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>223847.50574400401</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>221007.46188493699</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>223409.02257355701</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>221178.60615717</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>216788.07675755399</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>222535.85449756699</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>217992.887131828</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>221275.199953748</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>217667.90477459101</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>220654.654295402</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>223809.74391031699</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>227253.114528087</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>226323.622045681</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>225261.96553466801</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>223101.09297147699</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>208413.729283352</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>226074.84433756801</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>207377.77743543501</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>217345.89362272201</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>215864.30888482599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Deskr. data'!$F$2:$F$88</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>2795.4568250377101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2588.4922422422401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2587.1153664302601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2620.3674152876301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2569.16000807101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2844.5759083985999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2864.32854791514</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2709.39550577931</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2604.98242621594</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2640.9300207441602</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2736.1995675961798</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2696.8539187459901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2818.3782467532801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2765.83672740264</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2981.1455807688299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2935.5098107270101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3011.74640259329</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2950.5243820793999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2985.5529795962202</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3085.3485184066499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3104.9719611667701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3126.6246149278099</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3289.3831570469001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3280.7748991427102</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3289.92225890084</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3288.8976673544298</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3396.2685932916002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3397.7540855509901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3455.1019489195501</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3513.7512951529402</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3471.6635222381601</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3451.58776985956</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3490.9107281747301</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3639.0592285235998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3639.7508885503998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3681.5959543275999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3766.76878243396</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3804.17942511504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3858.2003464899099</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3895.9448255368902</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3935.0400826579098</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3968.9999554843298</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3944.7118932881799</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3987.0854929084098</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4086.0219259861301</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4128.0487238859796</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4233.5033917762503</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4294.12424645391</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4320.1554891710202</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4432.7200645249904</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4317.0885251857599</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4494.4671656083101</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4458.7696203776604</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4514.7529472016104</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4566.3557514983904</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4513.6234037172799</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4620.4112539313601</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4629.1237577022403</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4699.1478437341502</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4710.9988215969197</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4833.0553185004501</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4881.9773446327699</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5015.7421222315597</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5147.1295813144397</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5102.6883108874799</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5108.4897504990104</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5170.9571635472403</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5113.4253010361299</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5221.7769365317299</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5141.8520783098002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5154.1769420158798</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5190.0805854643404</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5367.1833333333298</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5465.4530163351101</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5457.9466905901099</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5445.8922714227201</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5424.1873808010096</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5572.1422075885903</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5555.2542771599601</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5675.2662348877402</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5436.5660305343499</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5615.480097914</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5594.7076442484404</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5869.2250453720499</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5654.3789789789798</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5607.2722400857501</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5992.8397318708103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E43C-114E-90FE-812A008FFAB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="80920880"/>
+        <c:axId val="80862768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="80920880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80862768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="80862768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80920880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Deskr. data'!$C$2:$C$88</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>24.635746606334799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.897897897897899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.0014184397163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.787234042553202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.728813559321999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.765339425587499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.607168983174802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.505276760715098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.578074120018599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.293465577596301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.552417931521401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.9667946257198</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.764817001180599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.777216352779099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.731582219459099</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.936137720394299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.0333649588868</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.563456736510702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.069523912339399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.5705225007551</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28.079705647663801</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.153769068032499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.612473784991298</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.599565052950101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.488921045491502</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.423658872076999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.217766082932599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30.3710484015003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.618900793956701</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.620537932013299</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.9641798182688</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33.132397121497903</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34.630888566563698</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.247305242528199</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33.834475755267803</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.495630109952103</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35.181727730305496</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>35.2684115185208</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36.374751431154003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>37.2819412546839</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>37.868390582786603</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>37.7825854700855</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37.788421463922901</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>38.448374481993802</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>38.199849971869703</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39.757579499845598</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39.327254226675002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>40.6456686930091</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41.988125466766199</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41.966968698517299</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42.232613740243302</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42.628061687329897</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42.2089889850511</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43.8646799628943</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43.970539419087103</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43.588317107093197</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43.760700123068503</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44.559481216458003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44.978234398782298</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45.612626767604603</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44.988418165193501</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45.657966101694903</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45.980319596299402</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>46.482295937383498</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>47.588426816634602</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>47.707185628742501</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>47.325534759358298</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>46.757210865303797</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>47.203598200899599</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>46.916637960730299</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45.507084715104</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>47.5595558546433</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>48.4284671532847</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>47.049490538573501</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>47.608133971291899</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>47.3431734317343</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>47.417037507946603</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45.7093132643462</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>47.2198460222412</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>47.019689119170998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45.932824427480902</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>48.139208173690903</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>46.922822491730997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45.009074410163301</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>47.048648648648701</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>47.983922829581999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>46.819012797074997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Deskr. data'!$F$2:$F$88</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>2795.4568250377101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2588.4922422422401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2587.1153664302601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2620.3674152876301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2569.16000807101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2844.5759083985999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2864.32854791514</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2709.39550577931</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2604.98242621594</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2640.9300207441602</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2736.1995675961798</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2696.8539187459901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2818.3782467532801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2765.83672740264</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2981.1455807688299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2935.5098107270101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3011.74640259329</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2950.5243820793999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2985.5529795962202</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3085.3485184066499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3104.9719611667701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3126.6246149278099</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3289.3831570469001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3280.7748991427102</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3289.92225890084</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3288.8976673544298</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3396.2685932916002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3397.7540855509901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3455.1019489195501</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3513.7512951529402</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3471.6635222381601</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3451.58776985956</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3490.9107281747301</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3639.0592285235998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3639.7508885503998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3681.5959543275999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3766.76878243396</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3804.17942511504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3858.2003464899099</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3895.9448255368902</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3935.0400826579098</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3968.9999554843298</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3944.7118932881799</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3987.0854929084098</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4086.0219259861301</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4128.0487238859796</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4233.5033917762503</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4294.12424645391</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4320.1554891710202</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4432.7200645249904</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4317.0885251857599</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4494.4671656083101</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4458.7696203776604</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4514.7529472016104</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4566.3557514983904</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4513.6234037172799</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4620.4112539313601</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4629.1237577022403</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4699.1478437341502</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4710.9988215969197</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4833.0553185004501</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4881.9773446327699</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5015.7421222315597</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5147.1295813144397</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5102.6883108874799</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5108.4897504990104</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5170.9571635472403</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5113.4253010361299</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5221.7769365317299</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5141.8520783098002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5154.1769420158798</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5190.0805854643404</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5367.1833333333298</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5465.4530163351101</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5457.9466905901099</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5445.8922714227201</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5424.1873808010096</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5572.1422075885903</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5555.2542771599601</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5675.2662348877402</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5436.5660305343499</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5615.480097914</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5594.7076442484404</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5869.2250453720499</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5654.3789789789798</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5607.2722400857501</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5992.8397318708103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2AC-3446-8616-34D69DE5DF6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="80920880"/>
+        <c:axId val="80862768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="80920880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80862768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="80862768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80920880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4803AF5E-BC3A-F3DF-B874-B8B3F1AEC2AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A7B792-974C-8907-7A13-3111665324C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0755967A-A5E8-024B-811C-3253E66E7B2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -164,10 +4173,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -205,71 +4214,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -297,7 +4306,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -320,11 +4329,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -333,13 +4342,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -349,7 +4358,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -358,7 +4367,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -367,7 +4376,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -375,10 +4384,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -443,7 +4452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -451,15 +4460,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -469,81 +4476,81 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>-0.207979038357735</v>
+        <v>-0.20797903835773501</v>
       </c>
       <c r="C2" s="2">
-        <v>0.0152018973603845</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>1.5201897360384501E-2</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>-0.135169625282288</v>
+        <v>-0.13516962528228799</v>
       </c>
       <c r="C3" s="2">
-        <v>0.00540863303467631</v>
-      </c>
-      <c r="D3" s="4" t="s">
+        <v>5.4086330346763099E-3</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>-0.0523580797016621</v>
+        <v>-5.2358079701662098E-2</v>
       </c>
       <c r="C4" s="2">
-        <v>0.00216939439997077</v>
-      </c>
-      <c r="D4" s="4" t="s">
+        <v>2.1693943999707699E-3</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>30</v>
       </c>
       <c r="B5" s="2">
-        <v>-0.019870126619935</v>
+        <v>-1.9870126619935001E-2</v>
       </c>
       <c r="C5" s="2">
-        <v>0.00141369842458516</v>
-      </c>
-      <c r="D5" s="4" t="s">
+        <v>1.4136984245851599E-3</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>-0.198661476373673</v>
+        <v>-0.19866147637367301</v>
       </c>
       <c r="C6" s="2">
-        <v>0.0151381799951196</v>
-      </c>
-      <c r="D6" s="4" t="s">
+        <v>1.5138179995119599E-2</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>10</v>
       </c>
@@ -551,41 +4558,41 @@
         <v>-0.131293430924416</v>
       </c>
       <c r="C7" s="2">
-        <v>0.00535690132528544</v>
-      </c>
-      <c r="D7" s="4" t="s">
+        <v>5.3569013252854399E-3</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>-0.0446860268712044</v>
+        <v>-4.4686026871204397E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>0.00215225643478334</v>
-      </c>
-      <c r="D8" s="4" t="s">
+        <v>2.1522564347833399E-3</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>30</v>
       </c>
       <c r="B9" s="2">
-        <v>-0.0158387720584869</v>
+        <v>-1.58387720584869E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>0.00142857898026705</v>
-      </c>
-      <c r="D9" s="4" t="s">
+        <v>1.4285789802670501E-3</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -593,13 +4600,13 @@
         <v>-0.364103943109512</v>
       </c>
       <c r="C10" s="2">
-        <v>0.0666957497596741</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>6.66957497596741E-2</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -607,69 +4614,69 @@
         <v>-0.155335932970047</v>
       </c>
       <c r="C11" s="2">
-        <v>0.0220724362879992</v>
-      </c>
-      <c r="D11" s="4" t="s">
+        <v>2.2072436287999202E-2</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>20</v>
       </c>
       <c r="B12" s="2">
-        <v>-0.230978697538376</v>
+        <v>-0.23097869753837599</v>
       </c>
       <c r="C12" s="2">
-        <v>0.0083312327042222</v>
-      </c>
-      <c r="D12" s="4" t="s">
+        <v>8.3312327042222006E-3</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>30</v>
       </c>
       <c r="B13" s="2">
-        <v>-0.161129906773567</v>
+        <v>-0.16112990677356701</v>
       </c>
       <c r="C13" s="2">
-        <v>0.00510261440649629</v>
-      </c>
-      <c r="D13" s="4" t="s">
+        <v>5.1026144064962899E-3</v>
+      </c>
+      <c r="D13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>5</v>
       </c>
       <c r="B14" s="2">
-        <v>-0.476965695619583</v>
+        <v>-0.47696569561958302</v>
       </c>
       <c r="C14" s="2">
-        <v>0.0664861351251602</v>
-      </c>
-      <c r="D14" s="4" t="s">
+        <v>6.6486135125160203E-2</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>10</v>
       </c>
       <c r="B15" s="2">
-        <v>-0.159336090087891</v>
+        <v>-0.15933609008789101</v>
       </c>
       <c r="C15" s="2">
-        <v>0.0217413268983364</v>
-      </c>
-      <c r="D15" s="4" t="s">
+        <v>2.17413268983364E-2</v>
+      </c>
+      <c r="D15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>20</v>
       </c>
@@ -677,41 +4684,41 @@
         <v>-0.221950232982635</v>
       </c>
       <c r="C16" s="2">
-        <v>0.0082522090524435</v>
-      </c>
-      <c r="D16" s="4" t="s">
+        <v>8.2522090524435009E-3</v>
+      </c>
+      <c r="D16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>30</v>
       </c>
       <c r="B17" s="2">
-        <v>-0.146414577960968</v>
+        <v>-0.14641457796096799</v>
       </c>
       <c r="C17" s="2">
-        <v>0.00504485378041863</v>
-      </c>
-      <c r="D17" s="4" t="s">
+        <v>5.0448537804186301E-3</v>
+      </c>
+      <c r="D17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>-0.472014576196671</v>
+        <v>-0.47201457619667098</v>
       </c>
       <c r="C18" s="2">
-        <v>0.0674331858754158</v>
-      </c>
-      <c r="D18" s="4" t="s">
+        <v>6.7433185875415802E-2</v>
+      </c>
+      <c r="D18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>10</v>
       </c>
@@ -719,69 +4726,69 @@
         <v>-0.171320870518684</v>
       </c>
       <c r="C19" s="2">
-        <v>0.0222359839826822</v>
-      </c>
-      <c r="D19" s="4" t="s">
+        <v>2.22359839826822E-2</v>
+      </c>
+      <c r="D19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>-0.228244692087173</v>
+        <v>-0.22824469208717299</v>
       </c>
       <c r="C20" s="2">
-        <v>0.00853740889579058</v>
-      </c>
-      <c r="D20" s="4" t="s">
+        <v>8.5374088957905804E-3</v>
+      </c>
+      <c r="D20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>30</v>
       </c>
       <c r="B21" s="2">
-        <v>-0.150086596608162</v>
+        <v>-0.15008659660816201</v>
       </c>
       <c r="C21" s="2">
-        <v>0.00532064260914922</v>
-      </c>
-      <c r="D21" s="4" t="s">
+        <v>5.3206426091492202E-3</v>
+      </c>
+      <c r="D21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>5</v>
       </c>
       <c r="B22" s="2">
-        <v>0.727815508842468</v>
+        <v>0.72781550884246804</v>
       </c>
       <c r="C22" s="2">
         <v>0.37754961848259</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>10</v>
       </c>
       <c r="B23" s="2">
-        <v>-0.665711164474487</v>
+        <v>-0.66571116447448697</v>
       </c>
       <c r="C23" s="2">
         <v>0.274494647979736</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -789,27 +4796,27 @@
         <v>-4.4566650390625</v>
       </c>
       <c r="C24" s="2">
-        <v>0.335901111364365</v>
-      </c>
-      <c r="D24" s="4" t="s">
+        <v>0.33590111136436501</v>
+      </c>
+      <c r="D24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>30</v>
       </c>
       <c r="B25" s="2">
-        <v>-19.4658470153809</v>
+        <v>-19.465847015380898</v>
       </c>
       <c r="C25" s="2">
         <v>1.58930552005768</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>5</v>
       </c>
@@ -817,83 +4824,83 @@
         <v>0.125901654362679</v>
       </c>
       <c r="C26" s="2">
-        <v>0.289866596460342</v>
-      </c>
-      <c r="D26" s="4" t="s">
+        <v>0.28986659646034202</v>
+      </c>
+      <c r="D26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>10</v>
       </c>
       <c r="B27" s="2">
-        <v>-0.941619277000427</v>
+        <v>-0.94161927700042702</v>
       </c>
       <c r="C27" s="2">
-        <v>0.252727717161179</v>
-      </c>
-      <c r="D27" s="4" t="s">
+        <v>0.25272771716117898</v>
+      </c>
+      <c r="D27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>20</v>
       </c>
       <c r="B28" s="2">
-        <v>-7.49580764770508</v>
+        <v>-7.4958076477050799</v>
       </c>
       <c r="C28" s="2">
-        <v>0.519640922546387</v>
-      </c>
-      <c r="D28" s="4" t="s">
+        <v>0.51964092254638705</v>
+      </c>
+      <c r="D28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
+    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>30</v>
       </c>
       <c r="B29" s="2">
-        <v>-30.2342395782471</v>
+        <v>-30.234239578247099</v>
       </c>
       <c r="C29" s="2">
-        <v>3.006507396698</v>
-      </c>
-      <c r="D29" s="4" t="s">
+        <v>3.0065073966979998</v>
+      </c>
+      <c r="D29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>5</v>
       </c>
       <c r="B30" s="2">
-        <v>-0.270452916622162</v>
+        <v>-0.27045291662216198</v>
       </c>
       <c r="C30" s="2">
-        <v>0.773690760135651</v>
-      </c>
-      <c r="D30" s="4" t="s">
+        <v>0.77369076013565097</v>
+      </c>
+      <c r="D30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>10</v>
       </c>
       <c r="B31" s="2">
-        <v>-1.40993237495422</v>
+        <v>-1.4099323749542201</v>
       </c>
       <c r="C31" s="2">
-        <v>0.83512008190155</v>
-      </c>
-      <c r="D31" s="4" t="s">
+        <v>0.83512008190154996</v>
+      </c>
+      <c r="D31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>20</v>
       </c>
@@ -903,11 +4910,11 @@
       <c r="C32" s="2">
         <v>0.203912898898125</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
+    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -915,41 +4922,41 @@
         <v>0.847561836242676</v>
       </c>
       <c r="C33" s="2">
-        <v>0.174526944756508</v>
-      </c>
-      <c r="D33" s="4" t="s">
+        <v>0.17452694475650801</v>
+      </c>
+      <c r="D33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
+    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>5</v>
       </c>
       <c r="B34" s="2">
-        <v>2.4697630405426</v>
+        <v>2.4697630405425999</v>
       </c>
       <c r="C34" s="2">
         <v>0.541637122631073</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>10</v>
       </c>
       <c r="B35" s="2">
-        <v>-1.21525681018829</v>
+        <v>-1.2152568101882899</v>
       </c>
       <c r="C35" s="2">
-        <v>0.715616583824158</v>
-      </c>
-      <c r="D35" s="4" t="s">
+        <v>0.71561658382415805</v>
+      </c>
+      <c r="D35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
+    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>20</v>
       </c>
@@ -957,55 +4964,55 @@
         <v>1.51062667369843</v>
       </c>
       <c r="C36" s="2">
-        <v>0.19873034954071</v>
-      </c>
-      <c r="D36" s="4" t="s">
+        <v>0.19873034954071001</v>
+      </c>
+      <c r="D36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>30</v>
       </c>
       <c r="B37" s="2">
-        <v>0.157810732722282</v>
+        <v>0.15781073272228199</v>
       </c>
       <c r="C37" s="2">
-        <v>0.187904581427574</v>
-      </c>
-      <c r="D37" s="4" t="s">
+        <v>0.18790458142757399</v>
+      </c>
+      <c r="D37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>5</v>
       </c>
       <c r="B38" s="2">
-        <v>2.40872859954834</v>
+        <v>2.4087285995483398</v>
       </c>
       <c r="C38" s="2">
-        <v>0.548788368701935</v>
-      </c>
-      <c r="D38" s="4" t="s">
+        <v>0.54878836870193504</v>
+      </c>
+      <c r="D38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
+    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>10</v>
       </c>
       <c r="B39" s="2">
-        <v>-0.827855110168457</v>
+        <v>-0.82785511016845703</v>
       </c>
       <c r="C39" s="2">
-        <v>0.601705014705658</v>
-      </c>
-      <c r="D39" s="4" t="s">
+        <v>0.60170501470565796</v>
+      </c>
+      <c r="D39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>20</v>
       </c>
@@ -1013,23 +5020,23 @@
         <v>1.59313321113586</v>
       </c>
       <c r="C40" s="2">
-        <v>0.174957409501076</v>
-      </c>
-      <c r="D40" s="4" t="s">
+        <v>0.17495740950107599</v>
+      </c>
+      <c r="D40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
+    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>30</v>
       </c>
       <c r="B41" s="2">
-        <v>0.3011714220047</v>
+        <v>0.30117142200469998</v>
       </c>
       <c r="C41" s="2">
-        <v>0.161614999175072</v>
-      </c>
-      <c r="D41" s="4" t="s">
+        <v>0.16161499917507199</v>
+      </c>
+      <c r="D41" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1039,23 +5046,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1065,25 +5072,25 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>0.317728996276855</v>
+        <v>0.31772899627685502</v>
       </c>
       <c r="C2" s="2">
-        <v>3.92068791389465</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>3.9206879138946502</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -1091,27 +5098,27 @@
         <v>3.45279765129089</v>
       </c>
       <c r="C3" s="2">
-        <v>1.2037547826767</v>
-      </c>
-      <c r="D3" s="4" t="s">
+        <v>1.2037547826767001</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>2.4697630405426</v>
+        <v>2.4697630405425999</v>
       </c>
       <c r="C4" s="2">
         <v>0.541637122631073</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>6</v>
       </c>
@@ -1119,125 +5126,125 @@
         <v>1.99428367614746</v>
       </c>
       <c r="C5" s="2">
-        <v>0.325734704732895</v>
-      </c>
-      <c r="D5" s="4" t="s">
+        <v>0.32573470473289501</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>1.13792622089386</v>
+        <v>1.1379262208938601</v>
       </c>
       <c r="C6" s="2">
-        <v>0.33025324344635</v>
-      </c>
-      <c r="D6" s="4" t="s">
+        <v>0.33025324344634999</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>0.275597780942917</v>
+        <v>0.27559778094291698</v>
       </c>
       <c r="C7" s="2">
-        <v>0.644712746143341</v>
-      </c>
-      <c r="D7" s="4" t="s">
+        <v>0.64471274614334095</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>-0.150857254862785</v>
+        <v>-0.15085725486278501</v>
       </c>
       <c r="C8" s="2">
-        <v>0.503517091274262</v>
-      </c>
-      <c r="D8" s="4" t="s">
+        <v>0.50351709127426203</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>-1.21525681018829</v>
+        <v>-1.2152568101882899</v>
       </c>
       <c r="C9" s="2">
-        <v>0.715616583824158</v>
-      </c>
-      <c r="D9" s="4" t="s">
+        <v>0.71561658382415805</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>-0.913864076137543</v>
+        <v>-0.91386407613754295</v>
       </c>
       <c r="C10" s="2">
-        <v>0.531587421894074</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>0.53158742189407404</v>
+      </c>
+      <c r="D10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>-1.09722697734833</v>
+        <v>-1.0972269773483301</v>
       </c>
       <c r="C11" s="2">
-        <v>0.531502723693848</v>
-      </c>
-      <c r="D11" s="4" t="s">
+        <v>0.53150272369384799</v>
+      </c>
+      <c r="D11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>-0.752512693405151</v>
+        <v>-0.75251269340515103</v>
       </c>
       <c r="C12" s="2">
-        <v>0.434726178646088</v>
-      </c>
-      <c r="D12" s="4" t="s">
+        <v>0.43472617864608798</v>
+      </c>
+      <c r="D12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>-1.5082243680954</v>
+        <v>-1.5082243680953999</v>
       </c>
       <c r="C13" s="2">
         <v>0.439121574163437</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>15</v>
       </c>
@@ -1245,27 +5252,27 @@
         <v>-0.444164037704468</v>
       </c>
       <c r="C14" s="2">
-        <v>0.365620255470276</v>
-      </c>
-      <c r="D14" s="4" t="s">
+        <v>0.36562025547027599</v>
+      </c>
+      <c r="D14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>0.610897719860077</v>
+        <v>0.61089771986007702</v>
       </c>
       <c r="C15" s="2">
-        <v>0.289030760526657</v>
-      </c>
-      <c r="D15" s="4" t="s">
+        <v>0.28903076052665699</v>
+      </c>
+      <c r="D15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>17</v>
       </c>
@@ -1273,13 +5280,13 @@
         <v>1.08660924434662</v>
       </c>
       <c r="C16" s="2">
-        <v>0.256840705871582</v>
-      </c>
-      <c r="D16" s="4" t="s">
+        <v>0.25684070587158198</v>
+      </c>
+      <c r="D16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>18</v>
       </c>
@@ -1287,27 +5294,27 @@
         <v>1.44857966899872</v>
       </c>
       <c r="C17" s="2">
-        <v>0.232915356755257</v>
-      </c>
-      <c r="D17" s="4" t="s">
+        <v>0.23291535675525701</v>
+      </c>
+      <c r="D17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>19</v>
       </c>
       <c r="B18" s="2">
-        <v>1.50530278682709</v>
+        <v>1.5053027868270901</v>
       </c>
       <c r="C18" s="2">
-        <v>0.220019683241844</v>
-      </c>
-      <c r="D18" s="4" t="s">
+        <v>0.22001968324184401</v>
+      </c>
+      <c r="D18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>20</v>
       </c>
@@ -1315,27 +5322,27 @@
         <v>1.51062667369843</v>
       </c>
       <c r="C19" s="2">
-        <v>0.19873034954071</v>
-      </c>
-      <c r="D19" s="4" t="s">
+        <v>0.19873034954071001</v>
+      </c>
+      <c r="D19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>21</v>
       </c>
       <c r="B20" s="2">
-        <v>1.49104583263397</v>
+        <v>1.4910458326339699</v>
       </c>
       <c r="C20" s="2">
         <v>0.193672075867653</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>22</v>
       </c>
@@ -1343,13 +5350,13 @@
         <v>1.40174400806427</v>
       </c>
       <c r="C21" s="2">
-        <v>0.199203655123711</v>
-      </c>
-      <c r="D21" s="4" t="s">
+        <v>0.19920365512371099</v>
+      </c>
+      <c r="D21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>23</v>
       </c>
@@ -1357,13 +5364,13 @@
         <v>1.39025926589966</v>
       </c>
       <c r="C22" s="2">
-        <v>0.256757706403732</v>
-      </c>
-      <c r="D22" s="4" t="s">
+        <v>0.25675770640373202</v>
+      </c>
+      <c r="D22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>24</v>
       </c>
@@ -1371,13 +5378,13 @@
         <v>1.4963219165802</v>
       </c>
       <c r="C23" s="2">
-        <v>0.334181100130081</v>
-      </c>
-      <c r="D23" s="4" t="s">
+        <v>0.33418110013008101</v>
+      </c>
+      <c r="D23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>25</v>
       </c>
@@ -1385,27 +5392,27 @@
         <v>1.07423114776611</v>
       </c>
       <c r="C24" s="2">
-        <v>0.287389725446701</v>
-      </c>
-      <c r="D24" s="4" t="s">
+        <v>0.28738972544670099</v>
+      </c>
+      <c r="D24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>26</v>
       </c>
       <c r="B25" s="2">
-        <v>0.668713092803955</v>
+        <v>0.66871309280395497</v>
       </c>
       <c r="C25" s="2">
         <v>0.232883810997009</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>27</v>
       </c>
@@ -1413,69 +5420,69 @@
         <v>0.458870679140091</v>
       </c>
       <c r="C26" s="2">
-        <v>0.203741192817688</v>
-      </c>
-      <c r="D26" s="4" t="s">
+        <v>0.20374119281768799</v>
+      </c>
+      <c r="D26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>28</v>
       </c>
       <c r="B27" s="2">
-        <v>0.366112917661667</v>
+        <v>0.36611291766166698</v>
       </c>
       <c r="C27" s="2">
-        <v>0.192051574587822</v>
-      </c>
-      <c r="D27" s="4" t="s">
+        <v>0.19205157458782199</v>
+      </c>
+      <c r="D27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>29</v>
       </c>
       <c r="B28" s="2">
-        <v>0.0476895496249199</v>
+        <v>4.7689549624919898E-2</v>
       </c>
       <c r="C28" s="2">
         <v>0.197499394416809</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
+    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>30</v>
       </c>
       <c r="B29" s="2">
-        <v>0.157810732722282</v>
+        <v>0.15781073272228199</v>
       </c>
       <c r="C29" s="2">
-        <v>0.187904581427574</v>
-      </c>
-      <c r="D29" s="4" t="s">
+        <v>0.18790458142757399</v>
+      </c>
+      <c r="D29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>31</v>
       </c>
       <c r="B30" s="2">
-        <v>0.197844251990318</v>
+        <v>0.19784425199031799</v>
       </c>
       <c r="C30" s="2">
         <v>0.181739076972008</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>32</v>
       </c>
@@ -1485,25 +5492,25 @@
       <c r="C31" s="2">
         <v>0</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>33</v>
       </c>
       <c r="B32" s="2">
-        <v>0.38567128777504</v>
+        <v>0.38567128777504001</v>
       </c>
       <c r="C32" s="2">
         <v>0.276611238718033</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
+    <row r="33" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>34</v>
       </c>
@@ -1511,55 +5518,55 @@
         <v>0.289875447750092</v>
       </c>
       <c r="C33" s="2">
-        <v>0.240581005811691</v>
-      </c>
-      <c r="D33" s="4" t="s">
+        <v>0.24058100581169101</v>
+      </c>
+      <c r="D33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
+    <row r="34" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>35</v>
       </c>
       <c r="B34" s="2">
-        <v>0.163342922925949</v>
+        <v>0.16334292292594901</v>
       </c>
       <c r="C34" s="2">
-        <v>0.235959425568581</v>
-      </c>
-      <c r="D34" s="4" t="s">
+        <v>0.23595942556858099</v>
+      </c>
+      <c r="D34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
+    <row r="35" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>36</v>
       </c>
       <c r="B35" s="2">
-        <v>0.280255168676376</v>
+        <v>0.28025516867637601</v>
       </c>
       <c r="C35" s="2">
-        <v>0.216340765357018</v>
-      </c>
-      <c r="D35" s="4" t="s">
+        <v>0.21634076535701799</v>
+      </c>
+      <c r="D35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
+    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>37</v>
       </c>
       <c r="B36" s="2">
-        <v>0.317062944173813</v>
+        <v>0.31706294417381298</v>
       </c>
       <c r="C36" s="2">
-        <v>0.208397388458252</v>
-      </c>
-      <c r="D36" s="4" t="s">
+        <v>0.20839738845825201</v>
+      </c>
+      <c r="D36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>38</v>
       </c>
@@ -1569,39 +5576,39 @@
       <c r="C37" s="2">
         <v>0.193807557225227</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>0.778879523277283</v>
+        <v>0.77887952327728305</v>
       </c>
       <c r="C38" s="2">
-        <v>0.180178925395012</v>
-      </c>
-      <c r="D38" s="4" t="s">
+        <v>0.18017892539501201</v>
+      </c>
+      <c r="D38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
+    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>1.11959409713745</v>
+        <v>1.1195940971374501</v>
       </c>
       <c r="C39" s="2">
-        <v>0.163145750761032</v>
-      </c>
-      <c r="D39" s="4" t="s">
+        <v>0.16314575076103199</v>
+      </c>
+      <c r="D39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>41</v>
       </c>
@@ -1609,13 +5616,13 @@
         <v>1.71095860004425</v>
       </c>
       <c r="C40" s="2">
-        <v>0.419297814369202</v>
-      </c>
-      <c r="D40" s="4" t="s">
+        <v>0.41929781436920199</v>
+      </c>
+      <c r="D40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
+    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>42</v>
       </c>
@@ -1623,13 +5630,13 @@
         <v>1.75461030006409</v>
       </c>
       <c r="C41" s="2">
-        <v>0.367775827646255</v>
-      </c>
-      <c r="D41" s="4" t="s">
+        <v>0.36777582764625499</v>
+      </c>
+      <c r="D41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
+    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43</v>
       </c>
@@ -1637,37 +5644,37 @@
         <v>1.81389808654785</v>
       </c>
       <c r="C42" s="2">
-        <v>0.362153649330139</v>
-      </c>
-      <c r="D42" s="4" t="s">
+        <v>0.36215364933013899</v>
+      </c>
+      <c r="D42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>1.91334342956543</v>
+        <v>1.9133434295654299</v>
       </c>
       <c r="C43" s="2">
-        <v>0.341088861227036</v>
-      </c>
-      <c r="D43" s="4" t="s">
+        <v>0.34108886122703602</v>
+      </c>
+      <c r="D43" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
+    <row r="44" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>45</v>
       </c>
       <c r="B44" s="2">
-        <v>1.93181586265564</v>
+        <v>1.9318158626556401</v>
       </c>
       <c r="C44" s="2">
-        <v>0.334479928016663</v>
-      </c>
-      <c r="D44" s="4" t="s">
+        <v>0.33447992801666299</v>
+      </c>
+      <c r="D44" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1677,25 +5684,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1714,8 +5718,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>20</v>
       </c>
@@ -1723,7 +5730,7 @@
         <v>442</v>
       </c>
       <c r="C2" s="2">
-        <v>24.6357466063348</v>
+        <v>24.635746606334799</v>
       </c>
       <c r="D2" s="2">
         <v>120955.663267575</v>
@@ -1732,10 +5739,14 @@
         <v>428.013939570866</v>
       </c>
       <c r="F2" s="2">
-        <v>2795.45682503771</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+        <v>2795.4568250377101</v>
+      </c>
+      <c r="G2">
+        <f>F2/A2</f>
+        <v>139.7728412518855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>21</v>
       </c>
@@ -1743,19 +5754,23 @@
         <v>333</v>
       </c>
       <c r="C3" s="2">
-        <v>23.8978978978979</v>
+        <v>23.897897897897899</v>
       </c>
       <c r="D3" s="2">
-        <v>110404.234871834</v>
+        <v>110404.23487183401</v>
       </c>
       <c r="E3" s="2">
-        <v>401.531047176209</v>
+        <v>401.53104717620897</v>
       </c>
       <c r="F3" s="2">
-        <v>2588.49224224224</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+        <v>2588.4922422422401</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">F3/A3</f>
+        <v>123.26153534486858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>22</v>
       </c>
@@ -1766,16 +5781,20 @@
         <v>24.0014184397163</v>
       </c>
       <c r="D4" s="2">
-        <v>103208.919395104</v>
+        <v>103208.91939510401</v>
       </c>
       <c r="E4" s="2">
-        <v>400.685884237017</v>
+        <v>400.68588423701698</v>
       </c>
       <c r="F4" s="2">
-        <v>2587.11536643026</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+        <v>2587.1153664302601</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>117.59615301955728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>23</v>
       </c>
@@ -1783,19 +5802,23 @@
         <v>423</v>
       </c>
       <c r="C5" s="2">
-        <v>23.7872340425532</v>
+        <v>23.787234042553202</v>
       </c>
       <c r="D5" s="2">
         <v>111960.343180311</v>
       </c>
       <c r="E5" s="2">
-        <v>404.620376725387</v>
+        <v>404.62037672538702</v>
       </c>
       <c r="F5" s="2">
-        <v>2620.36741528763</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+        <v>2620.3674152876301</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>113.92901805598392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>24</v>
       </c>
@@ -1803,19 +5826,23 @@
         <v>2891</v>
       </c>
       <c r="C6" s="2">
-        <v>23.728813559322</v>
+        <v>23.728813559321999</v>
       </c>
       <c r="D6" s="2">
         <v>105852.409411931</v>
       </c>
       <c r="E6" s="2">
-        <v>393.462648263242</v>
+        <v>393.46264826324199</v>
       </c>
       <c r="F6" s="2">
         <v>2569.16000807101</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>107.04833366962542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>25</v>
       </c>
@@ -1823,19 +5850,23 @@
         <v>3064</v>
       </c>
       <c r="C7" s="2">
-        <v>23.7653394255875</v>
+        <v>23.765339425587499</v>
       </c>
       <c r="D7" s="2">
         <v>109654.147455007</v>
       </c>
       <c r="E7" s="2">
-        <v>406.51829781858</v>
+        <v>406.51829781857998</v>
       </c>
       <c r="F7" s="2">
-        <v>2844.5759083986</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+        <v>2844.5759083985999</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>113.783036335944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>26</v>
       </c>
@@ -1843,19 +5874,23 @@
         <v>2734</v>
       </c>
       <c r="C8" s="2">
-        <v>23.6071689831748</v>
+        <v>23.607168983174802</v>
       </c>
       <c r="D8" s="2">
-        <v>112851.902593107</v>
+        <v>112851.90259310701</v>
       </c>
       <c r="E8" s="2">
-        <v>440.289638247162</v>
+        <v>440.28963824716197</v>
       </c>
       <c r="F8" s="2">
         <v>2864.32854791514</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>110.16648261212077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>27</v>
       </c>
@@ -1863,19 +5898,23 @@
         <v>4643</v>
       </c>
       <c r="C9" s="2">
-        <v>23.5052767607151</v>
+        <v>23.505276760715098</v>
       </c>
       <c r="D9" s="2">
         <v>108512.52998973</v>
       </c>
       <c r="E9" s="2">
-        <v>416.087221137613</v>
+        <v>416.08722113761303</v>
       </c>
       <c r="F9" s="2">
         <v>2709.39550577931</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>100.34798169553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>28</v>
       </c>
@@ -1883,19 +5922,23 @@
         <v>6449</v>
       </c>
       <c r="C10" s="2">
-        <v>23.5780741200186</v>
+        <v>23.578074120018599</v>
       </c>
       <c r="D10" s="2">
         <v>111062.479166643</v>
       </c>
       <c r="E10" s="2">
-        <v>405.69955832112</v>
+        <v>405.69955832111998</v>
       </c>
       <c r="F10" s="2">
         <v>2604.98242621594</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>93.035086650569284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>29</v>
       </c>
@@ -1903,19 +5946,23 @@
         <v>5142</v>
       </c>
       <c r="C11" s="2">
-        <v>23.2934655775963</v>
+        <v>23.293465577596301</v>
       </c>
       <c r="D11" s="2">
         <v>109241.895712912</v>
       </c>
       <c r="E11" s="2">
-        <v>411.136372191064</v>
+        <v>411.13637219106403</v>
       </c>
       <c r="F11" s="2">
-        <v>2640.93002074416</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+        <v>2640.9300207441602</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>91.066552439453801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>30</v>
       </c>
@@ -1923,19 +5970,23 @@
         <v>5666</v>
       </c>
       <c r="C12" s="2">
-        <v>25.5524179315214</v>
+        <v>25.552417931521401</v>
       </c>
       <c r="D12" s="2">
         <v>120091.16860972</v>
       </c>
       <c r="E12" s="2">
-        <v>425.924177037906</v>
+        <v>425.92417703790602</v>
       </c>
       <c r="F12" s="2">
-        <v>2736.19956759618</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+        <v>2736.1995675961798</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>91.206652253205988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>31</v>
       </c>
@@ -1946,16 +5997,20 @@
         <v>24.9667946257198</v>
       </c>
       <c r="D13" s="2">
-        <v>115301.079182675</v>
+        <v>115301.07918267501</v>
       </c>
       <c r="E13" s="2">
-        <v>418.303789239057</v>
+        <v>418.30378923905698</v>
       </c>
       <c r="F13" s="2">
-        <v>2696.85391874599</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+        <v>2696.8539187459901</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>86.995287701483548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>32</v>
       </c>
@@ -1963,19 +6018,23 @@
         <v>8470</v>
       </c>
       <c r="C14" s="2">
-        <v>25.7648170011806</v>
+        <v>25.764817001180599</v>
       </c>
       <c r="D14" s="2">
-        <v>119817.70742878</v>
+        <v>119817.70742878001</v>
       </c>
       <c r="E14" s="2">
         <v>444.419667136383</v>
       </c>
       <c r="F14" s="2">
-        <v>2818.37824675328</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+        <v>2818.3782467532801</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>88.074320211040003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>33</v>
       </c>
@@ -1983,19 +6042,23 @@
         <v>6531</v>
       </c>
       <c r="C15" s="2">
-        <v>24.7772163527791</v>
+        <v>24.777216352779099</v>
       </c>
       <c r="D15" s="2">
         <v>119110.367039591</v>
       </c>
       <c r="E15" s="2">
-        <v>434.605415363947</v>
+        <v>434.60541536394697</v>
       </c>
       <c r="F15" s="2">
         <v>2765.83672740264</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>83.813234163716359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>34</v>
       </c>
@@ -2003,19 +6066,23 @@
         <v>6434</v>
       </c>
       <c r="C16" s="2">
-        <v>25.7315822194591</v>
+        <v>25.731582219459099</v>
       </c>
       <c r="D16" s="2">
         <v>125956.003344513</v>
       </c>
       <c r="E16" s="2">
-        <v>465.368135008573</v>
+        <v>465.36813500857301</v>
       </c>
       <c r="F16" s="2">
-        <v>2981.14558076883</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+        <v>2981.1455807688299</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>87.680752375553823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>35</v>
       </c>
@@ -2023,19 +6090,23 @@
         <v>7203</v>
       </c>
       <c r="C17" s="2">
-        <v>25.9361377203943</v>
+        <v>25.936137720394299</v>
       </c>
       <c r="D17" s="2">
         <v>129386.109568054</v>
       </c>
       <c r="E17" s="2">
-        <v>465.347458272315</v>
+        <v>465.34745827231501</v>
       </c>
       <c r="F17" s="2">
-        <v>2935.50981072701</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+        <v>2935.5098107270101</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>83.871708877914571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>36</v>
       </c>
@@ -2046,7 +6117,7 @@
         <v>27.0333649588868</v>
       </c>
       <c r="D18" s="2">
-        <v>131660.588734979</v>
+        <v>131660.58873497901</v>
       </c>
       <c r="E18" s="2">
         <v>480.428985329824</v>
@@ -2054,8 +6125,12 @@
       <c r="F18" s="2">
         <v>3011.74640259329</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>83.659622294258057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>37</v>
       </c>
@@ -2063,19 +6138,23 @@
         <v>9211</v>
       </c>
       <c r="C19" s="2">
-        <v>26.5634567365107</v>
+        <v>26.563456736510702</v>
       </c>
       <c r="D19" s="2">
         <v>130896.06878858</v>
       </c>
       <c r="E19" s="2">
-        <v>471.192010954644</v>
+        <v>471.19201095464399</v>
       </c>
       <c r="F19" s="2">
-        <v>2950.5243820794</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+        <v>2950.5243820793999</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>79.743902218362152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>38</v>
       </c>
@@ -2083,19 +6162,23 @@
         <v>9263</v>
       </c>
       <c r="C20" s="2">
-        <v>27.0695239123394</v>
+        <v>27.069523912339399</v>
       </c>
       <c r="D20" s="2">
-        <v>131115.092940835</v>
+        <v>131115.09294083499</v>
       </c>
       <c r="E20" s="2">
         <v>475.390990169004</v>
       </c>
       <c r="F20" s="2">
-        <v>2985.55297959622</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+        <v>2985.5529795962202</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>78.567183673584736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>39</v>
       </c>
@@ -2106,16 +6189,20 @@
         <v>27.5705225007551</v>
       </c>
       <c r="D21" s="2">
-        <v>135898.156440812</v>
+        <v>135898.15644081199</v>
       </c>
       <c r="E21" s="2">
-        <v>489.68074486154</v>
+        <v>489.68074486154001</v>
       </c>
       <c r="F21" s="2">
-        <v>3085.34851840665</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+        <v>3085.3485184066499</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>79.111500471965385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>40</v>
       </c>
@@ -2123,7 +6210,7 @@
         <v>11279</v>
       </c>
       <c r="C22" s="2">
-        <v>28.0797056476638</v>
+        <v>28.079705647663801</v>
       </c>
       <c r="D22" s="2">
         <v>138455.307331213</v>
@@ -2132,10 +6219,14 @@
         <v>495.687755434736</v>
       </c>
       <c r="F22" s="2">
-        <v>3104.97196116677</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+        <v>3104.9719611667701</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>77.624299029169251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>41</v>
       </c>
@@ -2143,19 +6234,23 @@
         <v>8981</v>
       </c>
       <c r="C23" s="2">
-        <v>27.1537690680325</v>
+        <v>27.153769068032499</v>
       </c>
       <c r="D23" s="2">
         <v>138715.134370015</v>
       </c>
       <c r="E23" s="2">
-        <v>499.963478454515</v>
+        <v>499.96347845451498</v>
       </c>
       <c r="F23" s="2">
-        <v>3126.62461492781</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+        <v>3126.6246149278099</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>76.259136949458778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>42</v>
       </c>
@@ -2163,19 +6258,23 @@
         <v>10967</v>
       </c>
       <c r="C24" s="2">
-        <v>28.6124737849913</v>
+        <v>28.612473784991298</v>
       </c>
       <c r="D24" s="2">
         <v>143310.037901403</v>
       </c>
       <c r="E24" s="2">
-        <v>513.865496783606</v>
+        <v>513.86549678360598</v>
       </c>
       <c r="F24" s="2">
-        <v>3289.3831570469</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+        <v>3289.3831570469001</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>78.318646596354768</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43</v>
       </c>
@@ -2183,19 +6282,23 @@
         <v>10576</v>
       </c>
       <c r="C25" s="2">
-        <v>28.5995650529501</v>
+        <v>28.599565052950101</v>
       </c>
       <c r="D25" s="2">
-        <v>142900.16075132</v>
+        <v>142900.16075132001</v>
       </c>
       <c r="E25" s="2">
-        <v>516.727816480406</v>
+        <v>516.72781648040598</v>
       </c>
       <c r="F25" s="2">
-        <v>3280.77489914271</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+        <v>3280.7748991427102</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>76.297090677737444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44</v>
       </c>
@@ -2203,19 +6306,23 @@
         <v>11057</v>
       </c>
       <c r="C26" s="2">
-        <v>28.4889210454915</v>
+        <v>28.488921045491502</v>
       </c>
       <c r="D26" s="2">
-        <v>147711.797474676</v>
+        <v>147711.79747467599</v>
       </c>
       <c r="E26" s="2">
-        <v>523.01235824919</v>
+        <v>523.01235824919002</v>
       </c>
       <c r="F26" s="2">
         <v>3289.92225890084</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>74.770960429564539</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45</v>
       </c>
@@ -2223,19 +6330,23 @@
         <v>11632</v>
       </c>
       <c r="C27" s="2">
-        <v>29.423658872077</v>
+        <v>29.423658872076999</v>
       </c>
       <c r="D27" s="2">
         <v>150606.856428325</v>
       </c>
       <c r="E27" s="2">
-        <v>525.11628100457</v>
+        <v>525.11628100457006</v>
       </c>
       <c r="F27" s="2">
-        <v>3288.89766735443</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+        <v>3288.8976673544298</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>73.086614830098441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>46</v>
       </c>
@@ -2243,19 +6354,23 @@
         <v>11021</v>
       </c>
       <c r="C28" s="2">
-        <v>29.2177660829326</v>
+        <v>29.217766082932599</v>
       </c>
       <c r="D28" s="2">
         <v>151321.989119904</v>
       </c>
       <c r="E28" s="2">
-        <v>543.86812858736</v>
+        <v>543.86812858736005</v>
       </c>
       <c r="F28" s="2">
-        <v>3396.2685932916</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
+        <v>3396.2685932916002</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>73.831925941121739</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>47</v>
       </c>
@@ -2266,16 +6381,20 @@
         <v>30.3710484015003</v>
       </c>
       <c r="D29" s="2">
-        <v>153471.803365657</v>
+        <v>153471.80336565699</v>
       </c>
       <c r="E29" s="2">
-        <v>544.143712298855</v>
+        <v>544.14371229885501</v>
       </c>
       <c r="F29" s="2">
-        <v>3397.75408555099</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+        <v>3397.7540855509901</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>72.292640118106178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>48</v>
       </c>
@@ -2283,19 +6402,23 @@
         <v>12973</v>
       </c>
       <c r="C30" s="2">
-        <v>29.6189007939567</v>
+        <v>29.618900793956701</v>
       </c>
       <c r="D30" s="2">
-        <v>156062.700514087</v>
+        <v>156062.70051408699</v>
       </c>
       <c r="E30" s="2">
-        <v>553.336639621248</v>
+        <v>553.33663962124797</v>
       </c>
       <c r="F30" s="2">
-        <v>3455.10194891955</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+        <v>3455.1019489195501</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>71.981290602490631</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>49</v>
       </c>
@@ -2303,19 +6426,23 @@
         <v>14091</v>
       </c>
       <c r="C31" s="2">
-        <v>30.6205379320133</v>
+        <v>30.620537932013299</v>
       </c>
       <c r="D31" s="2">
         <v>156834.6245985</v>
       </c>
       <c r="E31" s="2">
-        <v>565.554568118291</v>
+        <v>565.55456811829094</v>
       </c>
       <c r="F31" s="2">
-        <v>3513.75129515294</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+        <v>3513.7512951529402</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>71.709210105162043</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>50</v>
       </c>
@@ -2326,16 +6453,20 @@
         <v>28.9641798182688</v>
       </c>
       <c r="D32" s="2">
-        <v>152779.828824987</v>
+        <v>152779.82882498699</v>
       </c>
       <c r="E32" s="2">
-        <v>561.955164221471</v>
+        <v>561.95516422147102</v>
       </c>
       <c r="F32" s="2">
-        <v>3471.66352223816</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
+        <v>3471.6635222381601</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>69.433270444763195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>51</v>
       </c>
@@ -2343,19 +6474,23 @@
         <v>14313</v>
       </c>
       <c r="C33" s="2">
-        <v>33.1323971214979</v>
+        <v>33.132397121497903</v>
       </c>
       <c r="D33" s="2">
-        <v>165022.179156315</v>
+        <v>165022.17915631499</v>
       </c>
       <c r="E33" s="2">
-        <v>552.647261794489</v>
+        <v>552.64726179448905</v>
       </c>
       <c r="F33" s="2">
         <v>3451.58776985956</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>67.678191565873732</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>52</v>
       </c>
@@ -2363,19 +6498,23 @@
         <v>15857</v>
       </c>
       <c r="C34" s="2">
-        <v>34.6308885665637</v>
+        <v>34.630888566563698</v>
       </c>
       <c r="D34" s="2">
         <v>171717.19691539</v>
       </c>
       <c r="E34" s="2">
-        <v>557.453742826512</v>
+        <v>557.45374282651198</v>
       </c>
       <c r="F34" s="2">
-        <v>3490.91072817473</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
+        <v>3490.9107281747301</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>67.132898618744804</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>53</v>
       </c>
@@ -2383,19 +6522,23 @@
         <v>16328</v>
       </c>
       <c r="C35" s="2">
-        <v>34.2473052425282</v>
+        <v>34.247305242528199</v>
       </c>
       <c r="D35" s="2">
-        <v>174519.972083435</v>
+        <v>174519.97208343499</v>
       </c>
       <c r="E35" s="2">
-        <v>581.984374753046</v>
+        <v>581.98437475304604</v>
       </c>
       <c r="F35" s="2">
-        <v>3639.0592285236</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
+        <v>3639.0592285235998</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>68.661494877803776</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>54</v>
       </c>
@@ -2403,19 +6546,23 @@
         <v>15756</v>
       </c>
       <c r="C36" s="2">
-        <v>33.8344757552678</v>
+        <v>33.834475755267803</v>
       </c>
       <c r="D36" s="2">
-        <v>173950.824902915</v>
+        <v>173950.82490291499</v>
       </c>
       <c r="E36" s="2">
-        <v>583.410563512927</v>
+        <v>583.41056351292696</v>
       </c>
       <c r="F36" s="2">
-        <v>3639.7508885504</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
+        <v>3639.7508885503998</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>67.402794232414806</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>55</v>
       </c>
@@ -2423,19 +6570,23 @@
         <v>17735</v>
       </c>
       <c r="C37" s="2">
-        <v>35.4956301099521</v>
+        <v>35.495630109952103</v>
       </c>
       <c r="D37" s="2">
-        <v>176130.24602394</v>
+        <v>176130.24602394001</v>
       </c>
       <c r="E37" s="2">
-        <v>592.397708195022</v>
+        <v>592.39770819502201</v>
       </c>
       <c r="F37" s="2">
-        <v>3681.5959543276</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
+        <v>3681.5959543275999</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>66.938108260501821</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>56</v>
       </c>
@@ -2443,19 +6594,23 @@
         <v>17086</v>
       </c>
       <c r="C38" s="2">
-        <v>35.1817277303055</v>
+        <v>35.181727730305496</v>
       </c>
       <c r="D38" s="2">
-        <v>180622.881167106</v>
+        <v>180622.88116710601</v>
       </c>
       <c r="E38" s="2">
-        <v>601.302573697387</v>
+        <v>601.30257369738695</v>
       </c>
       <c r="F38" s="2">
         <v>3766.76878243396</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>67.263728257749293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>57</v>
       </c>
@@ -2466,16 +6621,20 @@
         <v>35.2684115185208</v>
       </c>
       <c r="D39" s="2">
-        <v>181695.29859724</v>
+        <v>181695.29859724001</v>
       </c>
       <c r="E39" s="2">
-        <v>610.719035058909</v>
+        <v>610.71903505890896</v>
       </c>
       <c r="F39" s="2">
         <v>3804.17942511504</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>66.739989914298945</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>58</v>
       </c>
@@ -2483,19 +6642,23 @@
         <v>16595</v>
       </c>
       <c r="C40" s="2">
-        <v>36.374751431154</v>
+        <v>36.374751431154003</v>
       </c>
       <c r="D40" s="2">
-        <v>183892.222784669</v>
+        <v>183892.22278466899</v>
       </c>
       <c r="E40" s="2">
-        <v>612.890962104792</v>
+        <v>612.89096210479204</v>
       </c>
       <c r="F40" s="2">
-        <v>3858.20034648991</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
+        <v>3858.2003464899099</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>66.520695629136384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>59</v>
       </c>
@@ -2509,13 +6672,17 @@
         <v>188369.854357501</v>
       </c>
       <c r="E41" s="2">
-        <v>622.859681513513</v>
+        <v>622.85968151351301</v>
       </c>
       <c r="F41" s="2">
-        <v>3895.94482553689</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
+        <v>3895.9448255368902</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>66.032963144693056</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>60</v>
       </c>
@@ -2523,19 +6690,23 @@
         <v>20728</v>
       </c>
       <c r="C42" s="2">
-        <v>37.8683905827866</v>
+        <v>37.868390582786603</v>
       </c>
       <c r="D42" s="2">
-        <v>190553.493303401</v>
+        <v>190553.49330340099</v>
       </c>
       <c r="E42" s="2">
-        <v>639.342438465657</v>
+        <v>639.34243846565698</v>
       </c>
       <c r="F42" s="2">
-        <v>3935.04008265791</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
+        <v>3935.0400826579098</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>65.584001377631836</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>61</v>
       </c>
@@ -2549,13 +6720,17 @@
         <v>194696.388870072</v>
       </c>
       <c r="E43" s="2">
-        <v>640.428123946941</v>
+        <v>640.42812394694101</v>
       </c>
       <c r="F43" s="2">
-        <v>3968.99995548433</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
+        <v>3968.9999554843298</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>65.065573040726719</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>62</v>
       </c>
@@ -2563,19 +6738,23 @@
         <v>15356</v>
       </c>
       <c r="C44" s="2">
-        <v>37.7884214639229</v>
+        <v>37.788421463922901</v>
       </c>
       <c r="D44" s="2">
-        <v>193041.621584208</v>
+        <v>193041.62158420801</v>
       </c>
       <c r="E44" s="2">
-        <v>638.266139535665</v>
+        <v>638.26613953566505</v>
       </c>
       <c r="F44" s="2">
-        <v>3944.71189328818</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
+        <v>3944.7118932881799</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>63.624385375615802</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>63</v>
       </c>
@@ -2583,19 +6762,23 @@
         <v>17133</v>
       </c>
       <c r="C45" s="2">
-        <v>38.4483744819938</v>
+        <v>38.448374481993802</v>
       </c>
       <c r="D45" s="2">
         <v>195785.333743453</v>
       </c>
       <c r="E45" s="2">
-        <v>642.150422783423</v>
+        <v>642.15042278342298</v>
       </c>
       <c r="F45" s="2">
-        <v>3987.08549290841</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
+        <v>3987.0854929084098</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>63.287071316006504</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>64</v>
       </c>
@@ -2603,19 +6786,23 @@
         <v>15997</v>
       </c>
       <c r="C46" s="2">
-        <v>38.1998499718697</v>
+        <v>38.199849971869703</v>
       </c>
       <c r="D46" s="2">
-        <v>198729.034599656</v>
+        <v>198729.03459965601</v>
       </c>
       <c r="E46" s="2">
         <v>663.196998630792</v>
       </c>
       <c r="F46" s="2">
-        <v>4086.02192598613</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
+        <v>4086.0219259861301</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>63.844092593533283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>65</v>
       </c>
@@ -2623,19 +6810,23 @@
         <v>16195</v>
       </c>
       <c r="C47" s="2">
-        <v>39.7575794998456</v>
+        <v>39.757579499845598</v>
       </c>
       <c r="D47" s="2">
-        <v>202760.391842261</v>
+        <v>202760.39184226099</v>
       </c>
       <c r="E47" s="2">
-        <v>674.699993028513</v>
+        <v>674.69999302851295</v>
       </c>
       <c r="F47" s="2">
-        <v>4128.04872388598</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
+        <v>4128.0487238859796</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>63.508441905938149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>66</v>
       </c>
@@ -2643,19 +6834,23 @@
         <v>12776</v>
       </c>
       <c r="C48" s="2">
-        <v>39.327254226675</v>
+        <v>39.327254226675002</v>
       </c>
       <c r="D48" s="2">
-        <v>204039.384641175</v>
+        <v>204039.38464117501</v>
       </c>
       <c r="E48" s="2">
-        <v>685.925068677157</v>
+        <v>685.92506867715701</v>
       </c>
       <c r="F48" s="2">
-        <v>4233.50339177625</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
+        <v>4233.5033917762503</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>64.143990784488636</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>67</v>
       </c>
@@ -2669,13 +6864,17 @@
         <v>209958.440859397</v>
       </c>
       <c r="E49" s="2">
-        <v>679.289371507011</v>
+        <v>679.28937150701097</v>
       </c>
       <c r="F49" s="2">
         <v>4294.12424645391</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>64.091406663491199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>68</v>
       </c>
@@ -2683,19 +6882,23 @@
         <v>13390</v>
       </c>
       <c r="C50" s="2">
-        <v>41.9881254667662</v>
+        <v>41.988125466766199</v>
       </c>
       <c r="D50" s="2">
-        <v>209659.463616051</v>
+        <v>209659.46361605101</v>
       </c>
       <c r="E50" s="2">
         <v>680.302401888747</v>
       </c>
       <c r="F50" s="2">
-        <v>4320.15548917102</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
+        <v>4320.1554891710202</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>63.531698370162061</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>69</v>
       </c>
@@ -2703,19 +6906,23 @@
         <v>12140</v>
       </c>
       <c r="C51" s="2">
-        <v>41.9669686985173</v>
+        <v>41.966968698517299</v>
       </c>
       <c r="D51" s="2">
         <v>211421.194021248</v>
       </c>
       <c r="E51" s="2">
-        <v>673.309807620768</v>
+        <v>673.30980762076797</v>
       </c>
       <c r="F51" s="2">
-        <v>4432.72006452499</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
+        <v>4432.7200645249904</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>64.242319775724496</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>70</v>
       </c>
@@ -2723,19 +6930,23 @@
         <v>14221</v>
       </c>
       <c r="C52" s="2">
-        <v>42.2326137402433</v>
+        <v>42.232613740243302</v>
       </c>
       <c r="D52" s="2">
         <v>208940.158483732</v>
       </c>
       <c r="E52" s="2">
-        <v>659.390741996729</v>
+        <v>659.39074199672905</v>
       </c>
       <c r="F52" s="2">
-        <v>4317.08852518576</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
+        <v>4317.0885251857599</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>61.672693216939429</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>71</v>
       </c>
@@ -2743,19 +6954,23 @@
         <v>9921</v>
       </c>
       <c r="C53" s="2">
-        <v>42.6280616873299</v>
+        <v>42.628061687329897</v>
       </c>
       <c r="D53" s="2">
-        <v>212166.616513301</v>
+        <v>212166.61651330101</v>
       </c>
       <c r="E53" s="2">
-        <v>675.928558190349</v>
+        <v>675.92855819034901</v>
       </c>
       <c r="F53" s="2">
-        <v>4494.46716560831</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
+        <v>4494.4671656083101</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>63.302354445187468</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>72</v>
       </c>
@@ -2766,16 +6981,20 @@
         <v>42.2089889850511</v>
       </c>
       <c r="D54" s="2">
-        <v>213437.455097815</v>
+        <v>213437.45509781499</v>
       </c>
       <c r="E54" s="2">
-        <v>668.733315778787</v>
+        <v>668.73331577878696</v>
       </c>
       <c r="F54" s="2">
-        <v>4458.76962037766</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
+        <v>4458.7696203776604</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>61.92735583857862</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>73</v>
       </c>
@@ -2786,16 +7005,20 @@
         <v>43.8646799628943</v>
       </c>
       <c r="D55" s="2">
-        <v>214429.721293439</v>
+        <v>214429.72129343901</v>
       </c>
       <c r="E55" s="2">
-        <v>664.676117661141</v>
+        <v>664.67611766114101</v>
       </c>
       <c r="F55" s="2">
-        <v>4514.75294720161</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
+        <v>4514.7529472016104</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>61.845930783583704</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>74</v>
       </c>
@@ -2803,19 +7026,23 @@
         <v>7230</v>
       </c>
       <c r="C56" s="2">
-        <v>43.9705394190871</v>
+        <v>43.970539419087103</v>
       </c>
       <c r="D56" s="2">
         <v>214765.976534952</v>
       </c>
       <c r="E56" s="2">
-        <v>662.627220809352</v>
+        <v>662.62722080935202</v>
       </c>
       <c r="F56" s="2">
-        <v>4566.35575149839</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
+        <v>4566.3557514983904</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>61.707510155383652</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>75</v>
       </c>
@@ -2823,19 +7050,23 @@
         <v>7909</v>
       </c>
       <c r="C57" s="2">
-        <v>43.5883171070932</v>
+        <v>43.588317107093197</v>
       </c>
       <c r="D57" s="2">
-        <v>215447.789002761</v>
+        <v>215447.78900276101</v>
       </c>
       <c r="E57" s="2">
-        <v>640.580796071442</v>
+        <v>640.58079607144202</v>
       </c>
       <c r="F57" s="2">
-        <v>4513.62340371728</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
+        <v>4513.6234037172799</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>60.181645382897067</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>76</v>
       </c>
@@ -2843,19 +7074,23 @@
         <v>7313</v>
       </c>
       <c r="C58" s="2">
-        <v>43.7607001230685</v>
+        <v>43.760700123068503</v>
       </c>
       <c r="D58" s="2">
-        <v>215848.073029567</v>
+        <v>215848.07302956699</v>
       </c>
       <c r="E58" s="2">
-        <v>671.351080488569</v>
+        <v>671.35108048856898</v>
       </c>
       <c r="F58" s="2">
-        <v>4620.41125393136</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
+        <v>4620.4112539313601</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>60.794884920149478</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>77</v>
       </c>
@@ -2863,19 +7098,23 @@
         <v>6708</v>
       </c>
       <c r="C59" s="2">
-        <v>44.559481216458</v>
+        <v>44.559481216458003</v>
       </c>
       <c r="D59" s="2">
         <v>214188.670369531</v>
       </c>
       <c r="E59" s="2">
-        <v>653.557245080501</v>
+        <v>653.55724508050105</v>
       </c>
       <c r="F59" s="2">
-        <v>4629.12375770224</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
+        <v>4629.1237577022403</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>60.118490359769353</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>78</v>
       </c>
@@ -2883,19 +7122,23 @@
         <v>6570</v>
       </c>
       <c r="C60" s="2">
-        <v>44.9782343987823</v>
+        <v>44.978234398782298</v>
       </c>
       <c r="D60" s="2">
-        <v>217014.613383843</v>
+        <v>217014.61338384301</v>
       </c>
       <c r="E60" s="2">
-        <v>666.095797122797</v>
+        <v>666.09579712279697</v>
       </c>
       <c r="F60" s="2">
-        <v>4699.14784373415</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
+        <v>4699.1478437341502</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>60.245485176078851</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>79</v>
       </c>
@@ -2903,19 +7146,23 @@
         <v>7001</v>
       </c>
       <c r="C61" s="2">
-        <v>45.6126267676046</v>
+        <v>45.612626767604603</v>
       </c>
       <c r="D61" s="2">
         <v>216372.33279118</v>
       </c>
       <c r="E61" s="2">
-        <v>684.642488861038</v>
+        <v>684.64248886103803</v>
       </c>
       <c r="F61" s="2">
-        <v>4710.99882159692</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
+        <v>4710.9988215969197</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>59.632896475910378</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>80</v>
       </c>
@@ -2923,19 +7170,23 @@
         <v>6562</v>
       </c>
       <c r="C62" s="2">
-        <v>44.9884181651935</v>
+        <v>44.988418165193501</v>
       </c>
       <c r="D62" s="2">
         <v>218177.36173581</v>
       </c>
       <c r="E62" s="2">
-        <v>677.380194865845</v>
+        <v>677.38019486584506</v>
       </c>
       <c r="F62" s="2">
-        <v>4833.05531850045</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
+        <v>4833.0553185004501</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>60.413191481255623</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>81</v>
       </c>
@@ -2943,19 +7194,23 @@
         <v>5900</v>
       </c>
       <c r="C63" s="2">
-        <v>45.6579661016949</v>
+        <v>45.657966101694903</v>
       </c>
       <c r="D63" s="2">
-        <v>220650.035553262</v>
+        <v>220650.03555326199</v>
       </c>
       <c r="E63" s="2">
-        <v>666.646708583926</v>
+        <v>666.64670858392606</v>
       </c>
       <c r="F63" s="2">
-        <v>4881.97734463277</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
+        <v>4881.9773446327699</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>60.271325242379874</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>82</v>
       </c>
@@ -2963,19 +7218,23 @@
         <v>5945</v>
       </c>
       <c r="C64" s="2">
-        <v>45.9803195962994</v>
+        <v>45.980319596299402</v>
       </c>
       <c r="D64" s="2">
-        <v>223034.350892281</v>
+        <v>223034.35089228101</v>
       </c>
       <c r="E64" s="2">
-        <v>681.952657424238</v>
+        <v>681.95265742423805</v>
       </c>
       <c r="F64" s="2">
-        <v>5015.74212223156</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
+        <v>5015.7421222315597</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>61.167586856482437</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>83</v>
       </c>
@@ -2983,19 +7242,23 @@
         <v>5366</v>
       </c>
       <c r="C65" s="2">
-        <v>46.4822959373835</v>
+        <v>46.482295937383498</v>
       </c>
       <c r="D65" s="2">
         <v>224499.54255809</v>
       </c>
       <c r="E65" s="2">
-        <v>698.402113666695</v>
+        <v>698.40211366669496</v>
       </c>
       <c r="F65" s="2">
-        <v>5147.12958131444</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
+        <v>5147.1295813144397</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>62.013609413426984</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>84</v>
       </c>
@@ -3003,19 +7266,23 @@
         <v>6757</v>
       </c>
       <c r="C66" s="2">
-        <v>47.5884268166346</v>
+        <v>47.588426816634602</v>
       </c>
       <c r="D66" s="2">
         <v>224808.21267263</v>
       </c>
       <c r="E66" s="2">
-        <v>690.552177669991</v>
+        <v>690.55217766999101</v>
       </c>
       <c r="F66" s="2">
-        <v>5102.68831088748</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
+        <v>5102.6883108874799</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>60.746289415327141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>85</v>
       </c>
@@ -3023,19 +7290,23 @@
         <v>8350</v>
       </c>
       <c r="C67" s="2">
-        <v>47.7071856287425</v>
+        <v>47.707185628742501</v>
       </c>
       <c r="D67" s="2">
-        <v>227511.485020235</v>
+        <v>227511.48502023501</v>
       </c>
       <c r="E67" s="2">
         <v>694.330345760093</v>
       </c>
       <c r="F67" s="2">
-        <v>5108.48975049901</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
+        <v>5108.4897504990104</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G88" si="1">F67/A67</f>
+        <v>60.099879417635414</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>86</v>
       </c>
@@ -3043,7 +7314,7 @@
         <v>4488</v>
       </c>
       <c r="C68" s="2">
-        <v>47.3255347593583</v>
+        <v>47.325534759358298</v>
       </c>
       <c r="D68" s="2">
         <v>226832.493157299</v>
@@ -3052,10 +7323,14 @@
         <v>682.779038008165</v>
       </c>
       <c r="F68" s="2">
-        <v>5170.95716354724</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
+        <v>5170.9571635472403</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>60.127408878456279</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>87</v>
       </c>
@@ -3063,19 +7338,23 @@
         <v>3571</v>
       </c>
       <c r="C69" s="2">
-        <v>46.7572108653038</v>
+        <v>46.757210865303797</v>
       </c>
       <c r="D69" s="2">
-        <v>223847.505744004</v>
+        <v>223847.50574400401</v>
       </c>
       <c r="E69" s="2">
-        <v>664.247070938835</v>
+        <v>664.24707093883501</v>
       </c>
       <c r="F69" s="2">
-        <v>5113.42530103613</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
+        <v>5113.4253010361299</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>58.775003460185403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>88</v>
       </c>
@@ -3083,19 +7362,23 @@
         <v>3335</v>
       </c>
       <c r="C70" s="2">
-        <v>47.2035982008996</v>
+        <v>47.203598200899599</v>
       </c>
       <c r="D70" s="2">
-        <v>221007.461884937</v>
+        <v>221007.46188493699</v>
       </c>
       <c r="E70" s="2">
-        <v>669.852870339024</v>
+        <v>669.85287033902398</v>
       </c>
       <c r="F70" s="2">
-        <v>5221.77693653173</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
+        <v>5221.7769365317299</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>59.338374278769656</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>89</v>
       </c>
@@ -3103,19 +7386,23 @@
         <v>2903</v>
       </c>
       <c r="C71" s="2">
-        <v>46.9166379607303</v>
+        <v>46.916637960730299</v>
       </c>
       <c r="D71" s="2">
-        <v>223409.022573557</v>
+        <v>223409.02257355701</v>
       </c>
       <c r="E71" s="2">
-        <v>680.367950840621</v>
+        <v>680.36795084062101</v>
       </c>
       <c r="F71" s="2">
-        <v>5141.8520783098</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
+        <v>5141.8520783098002</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>57.773618857413481</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>90</v>
       </c>
@@ -3129,13 +7416,17 @@
         <v>221178.60615717</v>
       </c>
       <c r="E72" s="2">
-        <v>668.903089655441</v>
+        <v>668.90308965544102</v>
       </c>
       <c r="F72" s="2">
-        <v>5154.17694201588</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
+        <v>5154.1769420158798</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>57.268632689065335</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>91</v>
       </c>
@@ -3146,16 +7437,20 @@
         <v>47.5595558546433</v>
       </c>
       <c r="D73" s="2">
-        <v>216788.076757554</v>
+        <v>216788.07675755399</v>
       </c>
       <c r="E73" s="2">
-        <v>715.380258759172</v>
+        <v>715.38025875917197</v>
       </c>
       <c r="F73" s="2">
-        <v>5190.08058546434</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
+        <v>5190.0805854643404</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>57.033852587520222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>92</v>
       </c>
@@ -3166,16 +7461,20 @@
         <v>48.4284671532847</v>
       </c>
       <c r="D74" s="2">
-        <v>222535.854497567</v>
+        <v>222535.85449756699</v>
       </c>
       <c r="E74" s="2">
-        <v>699.237473510714</v>
+        <v>699.23747351071404</v>
       </c>
       <c r="F74" s="2">
-        <v>5367.18333333333</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
+        <v>5367.1833333333298</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>58.338949275362282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>93</v>
       </c>
@@ -3183,19 +7482,23 @@
         <v>2061</v>
       </c>
       <c r="C75" s="2">
-        <v>47.0494905385735</v>
+        <v>47.049490538573501</v>
       </c>
       <c r="D75" s="2">
         <v>217992.887131828</v>
       </c>
       <c r="E75" s="2">
-        <v>717.413109827675</v>
+        <v>717.41310982767504</v>
       </c>
       <c r="F75" s="2">
-        <v>5465.45301633511</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
+        <v>5465.4530163351101</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>58.768312003603334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>94</v>
       </c>
@@ -3203,19 +7506,23 @@
         <v>2090</v>
       </c>
       <c r="C76" s="2">
-        <v>47.6081339712919</v>
+        <v>47.608133971291899</v>
       </c>
       <c r="D76" s="2">
         <v>221275.199953748</v>
       </c>
       <c r="E76" s="2">
-        <v>681.293671862942</v>
+        <v>681.29367186294201</v>
       </c>
       <c r="F76" s="2">
-        <v>5457.94669059011</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
+        <v>5457.9466905901099</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>58.063262665852236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>95</v>
       </c>
@@ -3226,16 +7533,20 @@
         <v>47.3431734317343</v>
       </c>
       <c r="D77" s="2">
-        <v>217667.904774591</v>
+        <v>217667.90477459101</v>
       </c>
       <c r="E77" s="2">
-        <v>681.753263500377</v>
+        <v>681.75326350037699</v>
       </c>
       <c r="F77" s="2">
-        <v>5445.89227142272</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
+        <v>5445.8922714227201</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="1"/>
+        <v>57.325181804449684</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>96</v>
       </c>
@@ -3243,19 +7554,23 @@
         <v>1573</v>
       </c>
       <c r="C78" s="2">
-        <v>47.4170375079466</v>
+        <v>47.417037507946603</v>
       </c>
       <c r="D78" s="2">
         <v>220654.654295402</v>
       </c>
       <c r="E78" s="2">
-        <v>688.425260956053</v>
+        <v>688.42526095605297</v>
       </c>
       <c r="F78" s="2">
-        <v>5424.18738080101</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
+        <v>5424.1873808010096</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="1"/>
+        <v>56.50195188334385</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>97</v>
       </c>
@@ -3266,16 +7581,20 @@
         <v>45.7093132643462</v>
       </c>
       <c r="D79" s="2">
-        <v>223809.743910317</v>
+        <v>223809.74391031699</v>
       </c>
       <c r="E79" s="2">
-        <v>686.137589900768</v>
+        <v>686.13758990076803</v>
       </c>
       <c r="F79" s="2">
-        <v>5572.14220758859</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
+        <v>5572.1422075885903</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="1"/>
+        <v>57.444765026686497</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>98</v>
       </c>
@@ -3289,13 +7608,17 @@
         <v>227253.114528087</v>
       </c>
       <c r="E80" s="2">
-        <v>676.642043102735</v>
+        <v>676.64204310273499</v>
       </c>
       <c r="F80" s="2">
-        <v>5555.25427715996</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
+        <v>5555.2542771599601</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="1"/>
+        <v>56.686268134285307</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>99</v>
       </c>
@@ -3303,19 +7626,23 @@
         <v>965</v>
       </c>
       <c r="C81" s="2">
-        <v>47.019689119171</v>
+        <v>47.019689119170998</v>
       </c>
       <c r="D81" s="2">
         <v>226323.622045681</v>
       </c>
       <c r="E81" s="2">
-        <v>720.658365368544</v>
+        <v>720.65836536854397</v>
       </c>
       <c r="F81" s="2">
-        <v>5675.26623488774</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
+        <v>5675.2662348877402</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>57.325921564522631</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>100</v>
       </c>
@@ -3323,19 +7650,23 @@
         <v>1310</v>
       </c>
       <c r="C82" s="2">
-        <v>45.9328244274809</v>
+        <v>45.932824427480902</v>
       </c>
       <c r="D82" s="2">
-        <v>225261.965534668</v>
+        <v>225261.96553466801</v>
       </c>
       <c r="E82" s="2">
-        <v>658.709160305344</v>
+        <v>658.70916030534397</v>
       </c>
       <c r="F82" s="2">
-        <v>5436.56603053435</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
+        <v>5436.5660305343499</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="1"/>
+        <v>54.365660305343496</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>101</v>
       </c>
@@ -3343,19 +7674,23 @@
         <v>783</v>
       </c>
       <c r="C83" s="2">
-        <v>48.1392081736909</v>
+        <v>48.139208173690903</v>
       </c>
       <c r="D83" s="2">
-        <v>223101.092971477</v>
+        <v>223101.09297147699</v>
       </c>
       <c r="E83" s="2">
-        <v>736.943847072879</v>
+        <v>736.94384707287895</v>
       </c>
       <c r="F83" s="2">
         <v>5615.480097914</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
+      <c r="G83">
+        <f t="shared" si="1"/>
+        <v>55.598812850633664</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>102</v>
       </c>
@@ -3363,19 +7698,23 @@
         <v>907</v>
       </c>
       <c r="C84" s="2">
-        <v>46.922822491731</v>
+        <v>46.922822491730997</v>
       </c>
       <c r="D84" s="2">
         <v>208413.729283352</v>
       </c>
       <c r="E84" s="2">
-        <v>660.7654088274</v>
+        <v>660.76540882740005</v>
       </c>
       <c r="F84" s="2">
-        <v>5594.70764424844</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
+        <v>5594.7076442484404</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="1"/>
+        <v>54.850074943612164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>103</v>
       </c>
@@ -3383,19 +7722,23 @@
         <v>551</v>
       </c>
       <c r="C85" s="2">
-        <v>45.0090744101633</v>
+        <v>45.009074410163301</v>
       </c>
       <c r="D85" s="2">
-        <v>226074.844337568</v>
+        <v>226074.84433756801</v>
       </c>
       <c r="E85" s="2">
-        <v>749.71090685557</v>
+        <v>749.71090685556999</v>
       </c>
       <c r="F85" s="2">
-        <v>5869.22504537205</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18">
+        <v>5869.2250453720499</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="1"/>
+        <v>56.982767430796599</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>104</v>
       </c>
@@ -3403,19 +7746,23 @@
         <v>555</v>
       </c>
       <c r="C86" s="2">
-        <v>47.0486486486487</v>
+        <v>47.048648648648701</v>
       </c>
       <c r="D86" s="2">
-        <v>207377.777435435</v>
+        <v>207377.77743543501</v>
       </c>
       <c r="E86" s="2">
-        <v>656.315373437954</v>
+        <v>656.31537343795401</v>
       </c>
       <c r="F86" s="2">
-        <v>5654.37897897898</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18">
+        <v>5654.3789789789798</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="1"/>
+        <v>54.369028644028653</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>105</v>
       </c>
@@ -3423,19 +7770,23 @@
         <v>622</v>
       </c>
       <c r="C87" s="2">
-        <v>47.983922829582</v>
+        <v>47.983922829581999</v>
       </c>
       <c r="D87" s="2">
-        <v>217345.893622722</v>
+        <v>217345.89362272201</v>
       </c>
       <c r="E87" s="2">
-        <v>750.409656674619</v>
+        <v>750.40965667461899</v>
       </c>
       <c r="F87" s="2">
-        <v>5607.27224008575</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18">
+        <v>5607.2722400857501</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="1"/>
+        <v>53.402592762721433</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>106</v>
       </c>
@@ -3443,19 +7794,24 @@
         <v>547</v>
       </c>
       <c r="C88" s="2">
-        <v>46.819012797075</v>
+        <v>46.819012797074997</v>
       </c>
       <c r="D88" s="2">
-        <v>215864.308884826</v>
+        <v>215864.30888482599</v>
       </c>
       <c r="E88" s="2">
-        <v>712.974582768178</v>
+        <v>712.97458276817804</v>
       </c>
       <c r="F88" s="2">
-        <v>5992.83973187081</v>
+        <v>5992.8397318708103</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="1"/>
+        <v>56.536223885573683</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hjemsendelse 05-11-2025.xlsx
+++ b/Hjemsendelse 05-11-2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariussmidt/Desktop/BA/Bachelor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansandersen/Desktop/UNI/Bachelor/Bachelor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DCBF6E-CC18-3C4A-BA25-4405BEF85BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0EB320-A20A-D149-AFAC-CB7BA8EBD9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="24700" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model results" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="22">
   <si>
     <t>sqm</t>
   </si>
@@ -107,7 +107,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#.##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +124,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,10 +157,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -157,8 +169,17 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -177,7 +198,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -214,7 +235,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -614,7 +635,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="716659695"/>
@@ -677,7 +698,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="668002352"/>
@@ -719,13 +740,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -733,6 +753,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -756,7 +777,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -770,7 +791,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -807,7 +828,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1455,7 +1476,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="80862768"/>
@@ -1517,7 +1538,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="80920880"/>
@@ -1534,7 +1555,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1542,6 +1562,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1565,7 +1586,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1579,7 +1600,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1616,7 +1637,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2264,7 +2285,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="80862768"/>
@@ -2326,7 +2347,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="80920880"/>
@@ -2343,7 +2364,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2351,6 +2371,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2374,7 +2395,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4057,16 +4078,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4093,16 +4114,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4129,16 +4150,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5688,15 +5709,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6466,7 +6488,7 @@
         <v>69.433270444763195</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>51</v>
       </c>
@@ -6490,7 +6512,7 @@
         <v>67.678191565873732</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>52</v>
       </c>
@@ -6514,7 +6536,7 @@
         <v>67.132898618744804</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>53</v>
       </c>
@@ -6538,7 +6560,7 @@
         <v>68.661494877803776</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>54</v>
       </c>
@@ -6562,7 +6584,7 @@
         <v>67.402794232414806</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>55</v>
       </c>
@@ -6586,7 +6608,7 @@
         <v>66.938108260501821</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>56</v>
       </c>
@@ -6610,7 +6632,7 @@
         <v>67.263728257749293</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>57</v>
       </c>
@@ -6634,7 +6656,7 @@
         <v>66.739989914298945</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>58</v>
       </c>
@@ -6658,7 +6680,7 @@
         <v>66.520695629136384</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>59</v>
       </c>
@@ -6682,7 +6704,7 @@
         <v>66.032963144693056</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>60</v>
       </c>
@@ -6706,7 +6728,7 @@
         <v>65.584001377631836</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>61</v>
       </c>
@@ -6730,7 +6752,7 @@
         <v>65.065573040726719</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>62</v>
       </c>
@@ -6754,7 +6776,7 @@
         <v>63.624385375615802</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>63</v>
       </c>
@@ -6778,7 +6800,7 @@
         <v>63.287071316006504</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>64</v>
       </c>
@@ -6802,7 +6824,7 @@
         <v>63.844092593533283</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>65</v>
       </c>
@@ -6825,8 +6847,9 @@
         <f t="shared" si="0"/>
         <v>63.508441905938149</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>66</v>
       </c>
@@ -6849,8 +6872,16 @@
         <f t="shared" si="0"/>
         <v>64.143990784488636</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>67</v>
       </c>
@@ -6873,8 +6904,26 @@
         <f t="shared" si="0"/>
         <v>64.091406663491199</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I49" s="4">
+        <v>3</v>
+      </c>
+      <c r="J49" s="4">
+        <v>4</v>
+      </c>
+      <c r="K49" s="4">
+        <v>5</v>
+      </c>
+      <c r="L49" s="4">
+        <v>7</v>
+      </c>
+      <c r="M49" s="4">
+        <v>10</v>
+      </c>
+      <c r="N49" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>68</v>
       </c>
@@ -6897,8 +6946,32 @@
         <f t="shared" si="0"/>
         <v>63.531698370162061</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I50" s="6">
+        <f>SUM(B44:B50)</f>
+        <v>104007</v>
+      </c>
+      <c r="J50" s="6">
+        <f>SUM(B43:B51)</f>
+        <v>132995</v>
+      </c>
+      <c r="K50" s="6">
+        <f>SUM(B42:B52)</f>
+        <v>167944</v>
+      </c>
+      <c r="L50" s="6">
+        <f>SUM(B40:B54)</f>
+        <v>221174</v>
+      </c>
+      <c r="M50" s="6">
+        <f>SUM(B37:B57)</f>
+        <v>295767</v>
+      </c>
+      <c r="N50" s="6">
+        <f>SUM(B33:B61)</f>
+        <v>385613</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>69</v>
       </c>
@@ -6922,7 +6995,7 @@
         <v>64.242319775724496</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>70</v>
       </c>
@@ -6946,7 +7019,7 @@
         <v>61.672693216939429</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>71</v>
       </c>
@@ -6970,7 +7043,7 @@
         <v>63.302354445187468</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>72</v>
       </c>
@@ -6994,7 +7067,7 @@
         <v>61.92735583857862</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>73</v>
       </c>
@@ -7018,7 +7091,7 @@
         <v>61.845930783583704</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>74</v>
       </c>
@@ -7042,7 +7115,7 @@
         <v>61.707510155383652</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>75</v>
       </c>
@@ -7066,7 +7139,7 @@
         <v>60.181645382897067</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>76</v>
       </c>
@@ -7090,7 +7163,7 @@
         <v>60.794884920149478</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>77</v>
       </c>
@@ -7114,7 +7187,7 @@
         <v>60.118490359769353</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>78</v>
       </c>
@@ -7138,7 +7211,7 @@
         <v>60.245485176078851</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>79</v>
       </c>
@@ -7162,7 +7235,7 @@
         <v>59.632896475910378</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>80</v>
       </c>
@@ -7186,7 +7259,7 @@
         <v>60.413191481255623</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>81</v>
       </c>
@@ -7210,7 +7283,7 @@
         <v>60.271325242379874</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>82</v>
       </c>
@@ -7811,6 +7884,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I48:N48"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
